--- a/Projeto_01_Materiais_de_Construcao/Materiais_de_Construcao.xlsx
+++ b/Projeto_01_Materiais_de_Construcao/Materiais_de_Construcao.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henriky\Desktop\Excel\projetinhos\Projeto_01_Materiais_de_Construcao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1CB1F-2366-4B9D-A215-059B87990453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB50EC6-1FCE-408A-8346-008393046121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="622" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas-Banco_Original" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId6"/>
-    <pivotCache cacheId="50" r:id="rId7"/>
-    <pivotCache cacheId="54" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -795,7 +795,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -833,9 +833,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,8 +845,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2545,6 +2543,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="515771584"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3300,6 +3299,64 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5066,8 +5123,9 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5108,6 +5166,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Dados_Limpos!$I$33:$I$39</c:f>
@@ -5174,8 +5290,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5679,8 +5796,9 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5721,6 +5839,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Dados_Limpos!$I$24:$I$28</c:f>
@@ -5775,8 +5951,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -6137,6 +6314,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -6239,20 +6486,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Dados_Limpos!$I$44:$I$49</c:f>
@@ -17177,7 +17410,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75A8A1E0-DCDE-4909-9E0E-54DC8D28E07C}" name="Tabela dinâmica1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75A8A1E0-DCDE-4909-9E0E-54DC8D28E07C}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="I23:J28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -17280,7 +17513,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A849D433-7FD9-4C28-8FDF-3B914611353E}" name="Tabela dinâmica5" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A849D433-7FD9-4C28-8FDF-3B914611353E}" name="Tabela dinâmica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="I53:J58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -17383,7 +17616,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5B7D4E5-393B-4CD8-B4EA-AB70BBEFC7B4}" name="Tabela dinâmica4" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5B7D4E5-393B-4CD8-B4EA-AB70BBEFC7B4}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
   <location ref="I43:J49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -17736,7 +17969,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAC34B89-26F0-4530-9279-13AEEDB4260A}" name="Tabela dinâmica2" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="31">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAC34B89-26F0-4530-9279-13AEEDB4260A}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
   <location ref="I32:J39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -17854,175 +18087,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B12B5DE-D866-40A5-8E61-913A43B92A3D}" name="Tabela dinâmica8" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
-  <location ref="T16:V21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de quantidade" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Soma de % por tipo de erro" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="26" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="26" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30B2D7CF-B829-464D-A5E4-0CD22E47AAB4}" name="Tabela dinâmica5" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
-  <location ref="AC16:AE21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Soma de quantidade" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Soma de % por tipo de erro" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="26" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="26" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B519E2E6-F7A9-4007-B95A-3EAB748A0E70}" name="Tabela dinâmica2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B519E2E6-F7A9-4007-B95A-3EAB748A0E70}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="T9:U12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -18108,6 +18173,174 @@
             <x v="0"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B12B5DE-D866-40A5-8E61-913A43B92A3D}" name="Tabela dinâmica8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
+  <location ref="T16:V21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de quantidade" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Soma de % por tipo de erro" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="26" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30B2D7CF-B829-464D-A5E4-0CD22E47AAB4}" name="Tabela dinâmica5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="AC16:AE21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de quantidade" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Soma de % por tipo de erro" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="26" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="26" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -18600,11 +18833,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -37053,11 +37295,11 @@
         <v>192</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" ref="C194:C225" si="27">IF(AND(B194&lt;&gt;"",F194&lt;&gt;"",G194&lt;&gt;"",H194&lt;&gt;"",I194&lt;&gt;"",K194&lt;&gt;"",L194&lt;&gt;""),"COMPLETA","INCOMPLETA")</f>
+        <f t="shared" ref="C194:C201" si="27">IF(AND(B194&lt;&gt;"",F194&lt;&gt;"",G194&lt;&gt;"",H194&lt;&gt;"",I194&lt;&gt;"",K194&lt;&gt;"",L194&lt;&gt;""),"COMPLETA","INCOMPLETA")</f>
         <v>COMPLETA</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" ref="D194:D225" si="28">IF(AND(C194="COMPLETA", ISNUMBER(I194), I194&gt;0, ISNUMBER(K194), K194&gt;0), "OK", "ERRO")</f>
+        <f t="shared" ref="D194:D201" si="28">IF(AND(C194="COMPLETA", ISNUMBER(I194), I194&gt;0, ISNUMBER(K194), K194&gt;0), "OK", "ERRO")</f>
         <v>ERRO</v>
       </c>
       <c r="E194" t="str">
@@ -37400,10 +37642,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE87D335-CAE9-44C5-80DD-9EC98A2829C2}">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37416,15 +37658,15 @@
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -38127,118 +38369,84 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I39" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-    </row>
-    <row r="42" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>200</v>
       </c>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-    </row>
-    <row r="43" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I43" s="15" t="s">
         <v>168</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
       </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-    </row>
-    <row r="44" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I44" s="16" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="11">
         <v>2065.6999999999998</v>
       </c>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-    </row>
-    <row r="45" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I45" s="16" t="s">
         <v>17</v>
       </c>
@@ -38246,7 +38454,7 @@
         <v>14453.239999999998</v>
       </c>
     </row>
-    <row r="46" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I46" s="16" t="s">
         <v>10</v>
       </c>
@@ -38254,7 +38462,7 @@
         <v>11626.019999999999</v>
       </c>
     </row>
-    <row r="47" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I47" s="16" t="s">
         <v>49</v>
       </c>
@@ -38262,7 +38470,7 @@
         <v>5356.12</v>
       </c>
     </row>
-    <row r="48" spans="9:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I48" s="16" t="s">
         <v>21</v>
       </c>
@@ -38347,8 +38555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F6E490-FFCE-409E-810C-1448C2C72D68}">
   <dimension ref="A1:AH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView topLeftCell="S29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38515,7 +38723,7 @@
       <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="22" t="s">
         <v>172</v>
       </c>
       <c r="AH2" t="s">
@@ -38936,10 +39144,10 @@
       <c r="R8" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="23" t="s">
+      <c r="T8" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="Z8" s="22" t="s">
         <v>197</v>
       </c>
     </row>
@@ -39633,10 +39841,10 @@
       <c r="T17" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="U17" s="21">
+      <c r="U17">
         <v>33</v>
       </c>
-      <c r="V17" s="22">
+      <c r="V17" s="21">
         <v>0.16500000000000001</v>
       </c>
       <c r="Z17" t="s">
@@ -39649,10 +39857,10 @@
       <c r="AC17" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="AD17" s="21">
+      <c r="AD17">
         <v>33</v>
       </c>
-      <c r="AE17" s="22">
+      <c r="AE17" s="21">
         <v>0.16500000000000001</v>
       </c>
     </row>
@@ -39722,10 +39930,10 @@
       <c r="T18" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="U18" s="21">
+      <c r="U18">
         <v>108</v>
       </c>
-      <c r="V18" s="22">
+      <c r="V18" s="21">
         <v>0.54</v>
       </c>
       <c r="Z18" t="s">
@@ -39738,10 +39946,10 @@
       <c r="AC18" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="AD18" s="21">
+      <c r="AD18">
         <v>108</v>
       </c>
-      <c r="AE18" s="22">
+      <c r="AE18" s="21">
         <v>0.54</v>
       </c>
     </row>
@@ -39811,10 +40019,10 @@
       <c r="T19" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="U19" s="21">
+      <c r="U19">
         <v>28</v>
       </c>
-      <c r="V19" s="22">
+      <c r="V19" s="21">
         <v>0.14000000000000001</v>
       </c>
       <c r="Z19" t="s">
@@ -39827,10 +40035,10 @@
       <c r="AC19" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AD19">
         <v>28</v>
       </c>
-      <c r="AE19" s="22">
+      <c r="AE19" s="21">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -39898,10 +40106,10 @@
       <c r="T20" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="U20" s="21">
+      <c r="U20">
         <v>48</v>
       </c>
-      <c r="V20" s="22">
+      <c r="V20" s="21">
         <v>0.16</v>
       </c>
       <c r="Z20" t="s">
@@ -39914,10 +40122,10 @@
       <c r="AC20" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AD20">
         <v>48</v>
       </c>
-      <c r="AE20" s="22">
+      <c r="AE20" s="21">
         <v>0.16</v>
       </c>
     </row>
@@ -39984,10 +40192,10 @@
       <c r="T21" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="U21" s="21">
+      <c r="U21">
         <v>42</v>
       </c>
-      <c r="V21" s="22">
+      <c r="V21" s="21">
         <v>0.21</v>
       </c>
       <c r="Z21" t="s">
@@ -40000,10 +40208,10 @@
       <c r="AC21" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AD21" s="21">
+      <c r="AD21">
         <v>42</v>
       </c>
-      <c r="AE21" s="22">
+      <c r="AE21" s="21">
         <v>0.21</v>
       </c>
     </row>
@@ -40255,7 +40463,7 @@
       <c r="R25" t="s">
         <v>21</v>
       </c>
-      <c r="AG25" s="27"/>
+      <c r="AG25" s="23"/>
       <c r="AH25" s="18"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -40319,7 +40527,7 @@
       <c r="R26" t="s">
         <v>49</v>
       </c>
-      <c r="AG26" s="27"/>
+      <c r="AG26" s="23"/>
       <c r="AH26" s="18"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -40388,7 +40596,7 @@
       <c r="R27" t="s">
         <v>21</v>
       </c>
-      <c r="AG27" s="27"/>
+      <c r="AG27" s="23"/>
       <c r="AH27" s="18"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
@@ -40457,7 +40665,7 @@
       <c r="R28" t="s">
         <v>21</v>
       </c>
-      <c r="AG28" s="27"/>
+      <c r="AG28" s="23"/>
       <c r="AH28" s="18"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -40526,7 +40734,7 @@
       <c r="R29" t="s">
         <v>13</v>
       </c>
-      <c r="AG29" s="27"/>
+      <c r="AG29" s="23"/>
       <c r="AH29" s="18"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -51122,11 +51330,11 @@
         <v>192</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" ref="C194:C225" si="21">IF(AND(B194&lt;&gt;"",L194&lt;&gt;"",M194&lt;&gt;"",N194&lt;&gt;"",O194&lt;&gt;"",Q194&lt;&gt;"",R194&lt;&gt;""),"COMPLETA","INCOMPLETA")</f>
+        <f t="shared" ref="C194:C201" si="21">IF(AND(B194&lt;&gt;"",L194&lt;&gt;"",M194&lt;&gt;"",N194&lt;&gt;"",O194&lt;&gt;"",Q194&lt;&gt;"",R194&lt;&gt;""),"COMPLETA","INCOMPLETA")</f>
         <v>COMPLETA</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" ref="D194:D225" si="22">IF(AND(C194="COMPLETA", ISNUMBER(O194), O194&gt;0, ISNUMBER(Q194), Q194&gt;0), "OK", "ERRO")</f>
+        <f t="shared" ref="D194:D201" si="22">IF(AND(C194="COMPLETA", ISNUMBER(O194), O194&gt;0, ISNUMBER(Q194), Q194&gt;0), "OK", "ERRO")</f>
         <v>ERRO</v>
       </c>
       <c r="E194" t="str">
